--- a/Testinput/HybridData (Autosaved).xlsx
+++ b/Testinput/HybridData (Autosaved).xlsx
@@ -204,17 +204,17 @@
     <t>//a[@id='logout']</t>
   </si>
   <si>
-    <t>//button[normalize-space()='OK</t>
-  </si>
-  <si>
-    <t>Dashboard&lt;&lt;StockAccountings</t>
+    <t>Dashboard « Stock Accounting</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,12 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +738,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +746,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="6" max="6" width="25.109375" customWidth="1"/>
   </cols>
@@ -764,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -777,7 +784,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -931,7 +938,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -979,7 +986,7 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -996,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>

--- a/Testinput/HybridData (Autosaved).xlsx
+++ b/Testinput/HybridData (Autosaved).xlsx
@@ -4,47 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MasterTestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="ApplicationLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="MasterTestCases" sheetId="2" r:id="rId1"/>
+    <sheet name="ApplicationLogin" sheetId="3" r:id="rId2"/>
+    <sheet name="Suppliers" sheetId="4" r:id="rId3"/>
+    <sheet name="StockItems" sheetId="5" r:id="rId4"/>
+    <sheet name="Customers" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="99">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>navya</t>
-  </si>
-  <si>
-    <t>samuel</t>
-  </si>
-  <si>
-    <t>michael</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>blocked</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -208,13 +186,142 @@
   </si>
   <si>
     <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>//body/div[2]/div[2]/div[1]/div[1]/ul[1]/li[3]/a[1]</t>
+  </si>
+  <si>
+    <t>Click on supplier link</t>
+  </si>
+  <si>
+    <t>Wait for add + icon button</t>
+  </si>
+  <si>
+    <t>(//span[@data-phrase='AddLink'])[1]</t>
+  </si>
+  <si>
+    <t>Click on add + icon button</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>Lg suppliers</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>x_Address</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>x_City</t>
+  </si>
+  <si>
+    <t>Kukatpally</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>x_Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>x_Contact_Person</t>
+  </si>
+  <si>
+    <t>Lg MD</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>x_Phone_Number</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>x__Email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>x_Mobile_Number</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for ok button</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//body/div[17]/div[2]/div[1]/div[4]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>click alert ok button</t>
+  </si>
+  <si>
+    <t>validate table</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,27 +329,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -256,6 +342,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,18 +376,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,70 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>15487</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4598</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>187686</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,72 +702,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -733,12 +775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,68 +794,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -824,33 +866,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -858,33 +900,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -892,33 +934,33 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -926,33 +968,33 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -960,33 +1002,33 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -994,40 +1036,988 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>215637257845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>7412589637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testinput/HybridData (Autosaved).xlsx
+++ b/Testinput/HybridData (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="Customers" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="131">
   <si>
     <t>username</t>
   </si>
@@ -315,13 +316,109 @@
   </si>
   <si>
     <t>suppliertable</t>
+  </si>
+  <si>
+    <t>wait for customer link</t>
+  </si>
+  <si>
+    <t>//body/div[2]/div[2]/div[1]/div[1]/ul[1]/li[5]/a[1]</t>
+  </si>
+  <si>
+    <t>click on customer link</t>
+  </si>
+  <si>
+    <t>wait for add + icon on customer page</t>
+  </si>
+  <si>
+    <t>//body/div[2]/div[3]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/a[1]/span[1]</t>
+  </si>
+  <si>
+    <t>click on + icon on customer page</t>
+  </si>
+  <si>
+    <t>wait for customer number</t>
+  </si>
+  <si>
+    <t>capture customer number</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>x_Customer_Name</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Enter customer address</t>
+  </si>
+  <si>
+    <t>Borabanda</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter customer phone number </t>
+  </si>
+  <si>
+    <t>Enter customer contact person</t>
+  </si>
+  <si>
+    <t>Enter customer city</t>
+  </si>
+  <si>
+    <t>Enter customer country</t>
+  </si>
+  <si>
+    <t>Enter customer email address</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter customer mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes by customer</t>
+  </si>
+  <si>
+    <t>I'm happy for your service</t>
+  </si>
+  <si>
+    <t>Click Add button on customer page</t>
+  </si>
+  <si>
+    <t>Wait for Ok button on Alert popup</t>
+  </si>
+  <si>
+    <t>//body/div[18]/div[2]/div[1]/div[4]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>click on Ok button on Alert popup</t>
+  </si>
+  <si>
+    <t>Validate Table</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>captureCustomerData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +455,19 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,12 +490,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -756,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -780,7 +893,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1192,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -1845,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1969,7 @@
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="69.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
   </cols>
@@ -1871,7 +1984,7 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1891,7 +2004,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1908,7 +2021,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
@@ -1925,7 +2038,7 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1942,7 +2055,7 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
@@ -1959,7 +2072,7 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E6">
@@ -1976,7 +2089,7 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
@@ -1993,7 +2106,7 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E8">
@@ -2010,14 +2123,392 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>9589632147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>9874563211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>